--- a/public/Download/export.xlsx
+++ b/public/Download/export.xlsx
@@ -122,7 +122,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF1"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -289,6 +289,748 @@
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>12459</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>6831922</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Z00224A80212-PD</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>PD00215</t>
+        </is>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="2" t="n">
+        <v>2474</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC2" s="1" t="inlineStr">
+        <is>
+          <t>03/02/23</t>
+        </is>
+      </c>
+      <c r="AD2" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE2" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AF2" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>12535</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>6837446</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>30/01/23</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>P96120E158A1-PD</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>PD00217</t>
+        </is>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="2" t="n">
+        <v>2600</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z3" s="1" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
+      </c>
+      <c r="AC3" s="1" t="inlineStr">
+        <is>
+          <t>30/01/23</t>
+        </is>
+      </c>
+      <c r="AD3" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE3" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AF3" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>AM2603</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>6838590</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>01/02/23</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>P1A209P80101-PD</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>PD00222</t>
+        </is>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="2" t="n">
+        <v>2400</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z4" s="1" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="AC4" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="AD4" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AF4" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>12271</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>6841004</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Z00209H93107-PD</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>PD00236</t>
+        </is>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="2" t="n">
+        <v>1520</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z5" s="1" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC5" s="1" t="inlineStr">
+        <is>
+          <t>03/02/23</t>
+        </is>
+      </c>
+      <c r="AD5" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AF5" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>CM2463</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>6841010</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>01/02/23</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>Z00209H17503-PD</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>PD00236</t>
+        </is>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z6" s="1" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="AC6" s="1" t="inlineStr">
+        <is>
+          <t>01/02/23</t>
+        </is>
+      </c>
+      <c r="AD6" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AF6" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>CM2464</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>6845352</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>P96120E158A1-PD</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>PD00217</t>
+        </is>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z7" s="1" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC7" s="1" t="inlineStr">
+        <is>
+          <t>03/02/23</t>
+        </is>
+      </c>
+      <c r="AD7" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AF7" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>AM0118</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>6847122</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>P10225A80101-PD</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>PD00209</t>
+        </is>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="2" t="n">
+        <v>4400</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z8" s="1" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC8" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="AD8" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE8" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AF8" s="1" t="inlineStr">
         <is>
           <t>{f4}</t>
         </is>
@@ -310,7 +1052,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:AG31"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -482,6 +1224,3336 @@
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AM0118</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>6817526</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Z00201G76701-PD</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>PD00209</t>
+        </is>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="2" t="n">
+        <v>1999</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC2" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="AD2" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE2" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF2" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG2" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>CM2282</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>6831901</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Z00224A27701-PD</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>PD00202</t>
+        </is>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="2" t="n">
+        <v>7360</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z3" s="1" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC3" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="AD3" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE3" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF3" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG3" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>AM2532</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>6831901</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Z00224A27701-PD</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>PD00202</t>
+        </is>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z4" s="1" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC4" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="AD4" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE4" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG4" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>AM2307</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>6831901</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Z00224A27701-PD</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>PD00202</t>
+        </is>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z5" s="1" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC5" s="1" t="inlineStr">
+        <is>
+          <t>03/02/23</t>
+        </is>
+      </c>
+      <c r="AD5" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE5" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG5" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>12459</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>6831922</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>Z00224A80212-PD</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>PD00215</t>
+        </is>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="2" t="n">
+        <v>2474</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z6" s="1" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC6" s="1" t="inlineStr">
+        <is>
+          <t>03/02/23</t>
+        </is>
+      </c>
+      <c r="AD6" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE6" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG6" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>AM2307</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>6831933</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>Z00224A44810-PD</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>PD00202</t>
+        </is>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="2" t="n">
+        <v>3680</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z7" s="1" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC7" s="1" t="inlineStr">
+        <is>
+          <t>03/02/23</t>
+        </is>
+      </c>
+      <c r="AD7" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE7" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG7" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>12426</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>6837381</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>Z00209M31202-PD</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>PD00220</t>
+        </is>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="2" t="n">
+        <v>3440</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z8" s="1" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC8" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="AD8" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE8" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF8" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG8" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>CM0107</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>6837381</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>Z00209M31202-PD</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>PD00220</t>
+        </is>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="2" t="n">
+        <v>3040</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z9" s="1" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC9" s="1" t="inlineStr">
+        <is>
+          <t>03/02/23</t>
+        </is>
+      </c>
+      <c r="AD9" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE9" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF9" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG9" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CM2482</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>6837431</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>Z00269E20102-PD</t>
+        </is>
+      </c>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>PD00230</t>
+        </is>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="2" t="n">
+        <v>1360</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z10" s="1" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC10" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="AD10" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE10" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF10" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG10" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>12535</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>6837446</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>P96120E158A1-PD</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L11" s="1" t="inlineStr">
+        <is>
+          <t>PD00217</t>
+        </is>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="2" t="n">
+        <v>3800</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z11" s="1" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC11" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="AD11" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE11" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF11" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG11" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>AM2585</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>6837446</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>P96120E158A1-PD</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L12" s="1" t="inlineStr">
+        <is>
+          <t>PD00217</t>
+        </is>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="2" t="n">
+        <v>3200</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z12" s="1" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC12" s="1" t="inlineStr">
+        <is>
+          <t>03/02/23</t>
+        </is>
+      </c>
+      <c r="AD12" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE12" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF12" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG12" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>CM2464</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>6837446</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>P96120E158A1-PD</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L13" s="1" t="inlineStr">
+        <is>
+          <t>PD00217</t>
+        </is>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z13" s="1" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC13" s="1" t="inlineStr">
+        <is>
+          <t>03/02/23</t>
+        </is>
+      </c>
+      <c r="AD13" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE13" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF13" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG13" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>CM2604</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>6838590</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>P1A209P80101-PD</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L14" s="1" t="inlineStr">
+        <is>
+          <t>PD00222</t>
+        </is>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="2" t="n">
+        <v>3200</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z14" s="1" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC14" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="AD14" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE14" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF14" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG14" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>AM2603</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>6838590</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>P1A209P80101-PD</t>
+        </is>
+      </c>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L15" s="1" t="inlineStr">
+        <is>
+          <t>PD00222</t>
+        </is>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="2" t="n">
+        <v>3800</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z15" s="1" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC15" s="1" t="inlineStr">
+        <is>
+          <t>03/02/23</t>
+        </is>
+      </c>
+      <c r="AD15" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE15" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF15" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG15" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>12271</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>6841004</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>Z00209H93107-PD</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L16" s="1" t="inlineStr">
+        <is>
+          <t>PD00236</t>
+        </is>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="2" t="n">
+        <v>1520</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z16" s="1" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC16" s="1" t="inlineStr">
+        <is>
+          <t>03/02/23</t>
+        </is>
+      </c>
+      <c r="AD16" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE16" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF16" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG16" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>12330</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>6841004</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>Z00209H93107-PD</t>
+        </is>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="H17" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L17" s="1" t="inlineStr">
+        <is>
+          <t>PD00215</t>
+        </is>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="2" t="n">
+        <v>3040</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z17" s="1" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC17" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="AD17" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE17" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF17" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG17" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>12459</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>6841004</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>Z00209H93107-PD</t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="H18" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L18" s="1" t="inlineStr">
+        <is>
+          <t>PD00215</t>
+        </is>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="2" t="n">
+        <v>730</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z18" s="1" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC18" s="1" t="inlineStr">
+        <is>
+          <t>03/02/23</t>
+        </is>
+      </c>
+      <c r="AD18" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE18" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF18" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG18" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>CM2463</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>6841010</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F19" s="1" t="inlineStr">
+        <is>
+          <t>Z00209H17503-PD</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H19" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L19" s="1" t="inlineStr">
+        <is>
+          <t>PD00236</t>
+        </is>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="2" t="n">
+        <v>3920</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z19" s="1" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC19" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="AD19" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE19" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF19" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG19" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>12271</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>6841010</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>Z00209H17503-PD</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H20" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L20" s="1" t="inlineStr">
+        <is>
+          <t>PD00236</t>
+        </is>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="2" t="n">
+        <v>2394</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z20" s="1" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC20" s="1" t="inlineStr">
+        <is>
+          <t>03/02/23</t>
+        </is>
+      </c>
+      <c r="AD20" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE20" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF20" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG20" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>CM2482</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>6843810</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>Z00237H44802-PD</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L21" s="1" t="inlineStr">
+        <is>
+          <t>PD00230</t>
+        </is>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="2" t="n">
+        <v>2154</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z21" s="1" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC21" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="AD21" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE21" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF21" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG21" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>CM2435</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>6843810</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>Z00237H44802-PD</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="H22" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L22" s="1" t="inlineStr">
+        <is>
+          <t>PD00230</t>
+        </is>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="2" t="n">
+        <v>2086</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z22" s="1" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC22" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="AD22" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE22" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF22" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG22" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>12272</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>6843810</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>Z00237H44802-PD</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="H23" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L23" s="1" t="inlineStr">
+        <is>
+          <t>PD00230</t>
+        </is>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="2" t="n">
+        <v>5040</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z23" s="1" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC23" s="1" t="inlineStr">
+        <is>
+          <t>03/02/23</t>
+        </is>
+      </c>
+      <c r="AD23" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE23" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF23" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG23" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>62556</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>6843810</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>Z00237H44802-PD</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="H24" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L24" s="1" t="inlineStr">
+        <is>
+          <t>PD00226</t>
+        </is>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="2" t="n">
+        <v>3664</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z24" s="1" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC24" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="AD24" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE24" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF24" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG24" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>CM2626</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>6843810</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <t>Z00237H44802-PD</t>
+        </is>
+      </c>
+      <c r="G25" s="1" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="H25" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L25" s="1" t="inlineStr">
+        <is>
+          <t>PD00226</t>
+        </is>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="2" t="n">
+        <v>3520</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z25" s="1" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC25" s="1" t="inlineStr">
+        <is>
+          <t>03/02/23</t>
+        </is>
+      </c>
+      <c r="AD25" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE25" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF25" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG25" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>BM2624</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>6843870</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>ZR1279B76708-PD</t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="H26" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L26" s="1" t="inlineStr">
+        <is>
+          <t>PD00235</t>
+        </is>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="2" t="n">
+        <v>2640</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z26" s="1" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC26" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="AD26" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE26" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF26" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG26" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>CM1589</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>6843870</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>4N</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>ZR1279B76708-PD</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="H27" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L27" s="1" t="inlineStr">
+        <is>
+          <t>PD00235</t>
+        </is>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="2" t="n">
+        <v>2720</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z27" s="1" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC27" s="1" t="inlineStr">
+        <is>
+          <t>03/02/23</t>
+        </is>
+      </c>
+      <c r="AD27" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE27" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF27" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG27" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>12330</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>6844584</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F28" s="1" t="inlineStr">
+        <is>
+          <t>Z00243A38440-PD</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="H28" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L28" s="1" t="inlineStr">
+        <is>
+          <t>PD00215</t>
+        </is>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="2" t="n">
+        <v>1360</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z28" s="1" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC28" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="AD28" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE28" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF28" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG28" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>CM2464</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>6845352</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>P96120E158A1-PD</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="H29" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L29" s="1" t="inlineStr">
+        <is>
+          <t>PD00217</t>
+        </is>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z29" s="1" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC29" s="1" t="inlineStr">
+        <is>
+          <t>03/02/23</t>
+        </is>
+      </c>
+      <c r="AD29" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE29" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF29" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG29" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>AM0118</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>6847122</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <t>P10225A80101-PD</t>
+        </is>
+      </c>
+      <c r="G30" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H30" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L30" s="1" t="inlineStr">
+        <is>
+          <t>PD00209</t>
+        </is>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="2" t="n">
+        <v>4400</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z30" s="1" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC30" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="AD30" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE30" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF30" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG30" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>12506</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>6847122</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F31" s="1" t="inlineStr">
+        <is>
+          <t>P10225A80101-PD</t>
+        </is>
+      </c>
+      <c r="G31" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H31" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L31" s="1" t="inlineStr">
+        <is>
+          <t>PD00209</t>
+        </is>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="2" t="n">
+        <v>3200</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Z31" s="1" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
+      </c>
+      <c r="AC31" s="1" t="inlineStr">
+        <is>
+          <t>03/02/23</t>
+        </is>
+      </c>
+      <c r="AD31" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AE31" s="1" t="inlineStr">
+        <is>
+          <t>{space}</t>
+        </is>
+      </c>
+      <c r="AF31" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="AG31" s="1" t="inlineStr">
         <is>
           <t>{f4}</t>
         </is>
@@ -503,7 +4575,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -600,6 +4672,406 @@
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>BM2383</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>6831901</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Z00224A27701-PD</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>PD00202</t>
+        </is>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>MC-PAD-7</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>AM1187</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>6837381</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Z00209M31202-PD</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>PD00220</t>
+        </is>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>MC-PAD-4</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>CM2281</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>6838590</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>P1A209P80101-PD</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>PD00222</t>
+        </is>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>MC-PAD-7</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>AM1187</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>6841004</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Z00209H93107-PD</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>PD00215</t>
+        </is>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t>MC-PAD-7</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="Q5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>AM2182</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>6843810</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>Z00237H44802-PD</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>PD00226</t>
+        </is>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
+          <t>MC-PAD-4</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="Q6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="R6" s="1" t="inlineStr">
         <is>
           <t>{f4}</t>
         </is>
@@ -621,7 +5093,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -713,6 +5185,456 @@
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AM1343</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>6831922</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Z00224A80212-PD</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>PD00215</t>
+        </is>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>AM0093</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>6831933</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Z00224A44810-PD</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>PD00202</t>
+        </is>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>AM1187</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>6841004</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Z00209H93107-PD</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>PD00215</t>
+        </is>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>BM2382</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>6841010</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Z00209H17503-PD</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>PD00236</t>
+        </is>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q5" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>BM2185</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>6843810</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>Z00237H44802-PD</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>PD00230</t>
+        </is>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q6" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>BM2185</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>6847122</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>P10225A80101-PD</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>PD00209</t>
+        </is>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="O7" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="P7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q7" s="1" t="inlineStr">
         <is>
           <t>{f4}</t>
         </is>
@@ -734,7 +5656,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -826,6 +5748,456 @@
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AM1343</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>6831922</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Z00224A80212-PD</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>PD00215</t>
+        </is>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>AM0093</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>6831933</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Z00224A44810-PD</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>PD00202</t>
+        </is>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>AM1187</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>6841004</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Z00209H93107-PD</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>PD00215</t>
+        </is>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>BM2382</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>6841010</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Z00209H17503-PD</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>PD00236</t>
+        </is>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q5" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>BM2185</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>6843810</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>Z00237H44802-PD</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>PD00230</t>
+        </is>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q6" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>BM2185</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>6847122</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>P10225A80101-PD</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>PD00209</t>
+        </is>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="O7" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="P7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q7" s="1" t="inlineStr">
         <is>
           <t>{f4}</t>
         </is>
@@ -847,7 +6219,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -944,6 +6316,456 @@
         </is>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AM1343</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>6831922</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Z00224A80212-PD</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>PD00215</t>
+        </is>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>AM0093</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>6831933</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Z00224A44810-PD</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>PD00202</t>
+        </is>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>AM1187</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>6841004</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Z00209H93107-PD</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>PD00215</t>
+        </is>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>BM2382</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>6841010</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>N4</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Z00209H17503-PD</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>PD00236</t>
+        </is>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q5" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>BM2185</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>6843810</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>Z00237H44802-PD</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>PD00230</t>
+        </is>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q6" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>BM2185</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>6847122</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>02/02/23</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>P10225A80101-PD</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>PAD</t>
+        </is>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>PD00209</t>
+        </is>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="O7" s="1" t="inlineStr">
+        <is>
+          <t>{f1}</t>
+        </is>
+      </c>
+      <c r="P7" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="Q7" s="1" t="inlineStr">
+        <is>
+          <t>{f4}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.5" right="0.5" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
